--- a/accompany.xlsx
+++ b/accompany.xlsx
@@ -19,14 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
-  <si>
-    <t>員工01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工02</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>員工03</t>
   </si>
@@ -50,9 +43,6 @@
   </si>
   <si>
     <t>員工10</t>
-  </si>
-  <si>
-    <t>員工11</t>
   </si>
   <si>
     <t>同行員工</t>
@@ -61,6 +51,12 @@
   <si>
     <t>同行率</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工02</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
 </sst>
 </file>
@@ -103,8 +99,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -385,148 +384,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/accompany.xlsx
+++ b/accompany.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>員工03</t>
   </si>
@@ -57,12 +57,19 @@
   </si>
   <si>
     <t>13</t>
+  </si>
+  <si>
+    <t>員工01</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -392,9 +399,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="13.42578125" collapsed="true"/>
+    <col min="3" max="16384" style="1" width="9.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -483,6 +490,17 @@
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/accompany.xlsx
+++ b/accompany.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="23">
   <si>
     <t>員工03</t>
   </si>
@@ -63,6 +63,33 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>70.0</t>
   </si>
 </sst>
 </file>
@@ -391,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -401,7 +428,7 @@
   <cols>
     <col min="1" max="1" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="1" width="13.42578125" collapsed="true"/>
-    <col min="3" max="16384" style="1" width="9.140625" collapsed="false"/>
+    <col min="3" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -415,91 +442,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
     </row>
